--- a/ocms/src/test/resources/DownloadedFiles/Agent Aux Codes (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Agent Aux Codes (1).xlsx
@@ -97,37 +97,37 @@
     <t xml:space="preserve">callback</t>
   </si>
   <si>
-    <t xml:space="preserve">AuxCodesUpdate</t>
+    <t xml:space="preserve">BreakTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/03/2021 01:01:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/07/2021 13:39:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell</t>
   </si>
   <si>
     <t xml:space="preserve">abcd</t>
   </si>
   <si>
-    <t xml:space="preserve">Disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 09:44:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BreakTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/03/2021 01:01:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/07/2021 13:39:29</t>
+    <t xml:space="preserve">09/08/2021 17:49:37</t>
   </si>
   <si>
     <t xml:space="preserve">Free</t>
@@ -402,7 +402,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -431,7 +431,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>36</v>
